--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369690.4076944982</v>
+        <v>373873.6176770386</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462388</v>
+        <v>3854815.05046239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7707867.267003317</v>
+        <v>7707867.267003316</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,7 +667,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>349.74803638912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>35.67217976655853</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -756,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>187.4140068734882</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.7828199682119</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>256.4561542453789</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>56.38437232716918</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>289.1043232126777</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>338.6773891444291</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>322.5806213200719</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>372.4089305243864</v>
       </c>
       <c r="D11" t="n">
-        <v>322.0289021152299</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,7 +1505,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9625118881453</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>336.6327140501638</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>118.5015891625636</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -1822,7 +1824,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>181.0757632803115</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>15.79049412098954</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
@@ -1904,13 +1906,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1974,7 +1976,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830805</v>
       </c>
       <c r="U18" t="n">
         <v>207.9625118881446</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.5106787700978</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>212.0020795930057</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2093,7 +2095,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>278.9357490967232</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.4960702196626</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.05874847667314</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>113.166735434787</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
@@ -2381,10 +2383,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>384.8432471689921</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>168.6619292393395</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.51730545107097</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.562319262476439</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>298.82187832452</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>179.5936484773486</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.61153143263809</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2798,13 +2800,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>175.3547777857007</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>304.007403971462</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>28.33693001409718</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>4.852921530748822</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -3038,13 +3040,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>395.8906781276104</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>87.9530874907083</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>227.7981557993275</v>
+        <v>175.1143151649685</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3284,7 +3286,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>179.8681131105074</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.48381339488492</v>
+        <v>161.4085122120583</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67787267091717</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199029</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>214.1003704536477</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>374.0111757338752</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.9632162960285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>248.2092831288383</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3992,10 +3994,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1215496133408</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4107,7 +4109,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.2276889092491</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.66380379007099</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000.299222104186</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C2" t="n">
-        <v>607.1237206071166</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D2" t="n">
-        <v>221.6825918237844</v>
+        <v>400.5938149390386</v>
       </c>
       <c r="E2" t="n">
-        <v>221.6825918237844</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F2" t="n">
-        <v>221.6825918237844</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>221.6825918237844</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M2" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N2" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X2" t="n">
-        <v>1396.789931183585</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000.299222104186</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L3" t="n">
-        <v>858.0088487631995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M3" t="n">
-        <v>1443.506853769802</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W4" t="n">
-        <v>689.7133721932184</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X4" t="n">
-        <v>455.6330499762015</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.5209887928449</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>242.6039984506638</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C5" t="n">
-        <v>185.6500870090788</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D5" t="n">
-        <v>185.6500870090788</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E5" t="n">
-        <v>185.6500870090788</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>185.6500870090788</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1429.042058308403</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1039.58945324146</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>643.0987441620607</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="M6" t="n">
-        <v>952.5501211703722</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>77.69124027544166</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>77.69124027544166</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X7" t="n">
-        <v>77.69124027544166</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y7" t="n">
-        <v>77.69124027544166</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.888704297768</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C8" t="n">
-        <v>1681.888704297768</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D8" t="n">
-        <v>1681.888704297768</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.888704297768</v>
+        <v>2039.809493642763</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.888704297768</v>
+        <v>1643.318784563364</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O9" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P9" t="n">
-        <v>2218.395348604042</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4996,16 +4998,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1237.598381634357</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C11" t="n">
-        <v>1237.598381634357</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D11" t="n">
-        <v>912.3166623260436</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E11" t="n">
-        <v>509.7331374425881</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F11" t="n">
-        <v>509.7331374425881</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563895</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="M11" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1634.089090713755</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>1237.598381634357</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="12">
@@ -5112,43 +5114,43 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>678.132212472995</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M12" t="n">
-        <v>1263.630217479597</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
         <v>1819.753829752663</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5230,19 +5232,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1931.164882283303</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C14" t="n">
-        <v>1537.989380786234</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D14" t="n">
-        <v>1418.290805874553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.707280991098</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F14" t="n">
-        <v>598.8128425210757</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U14" t="n">
-        <v>2327.655591362702</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V14" t="n">
-        <v>2327.655591362702</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W14" t="n">
-        <v>2327.655591362702</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X14" t="n">
-        <v>2327.655591362702</v>
+        <v>783.8367236760574</v>
       </c>
       <c r="Y14" t="n">
-        <v>1931.164882283303</v>
+        <v>387.3460145966586</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5400,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>834.4501588705843</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1105.800704348839</v>
+        <v>371.396020535053</v>
       </c>
       <c r="C17" t="n">
-        <v>1105.800704348839</v>
+        <v>371.396020535053</v>
       </c>
       <c r="D17" t="n">
-        <v>1105.800704348839</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E17" t="n">
-        <v>1105.800704348839</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F17" t="n">
-        <v>922.895892954585</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G17" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H17" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2327.655591362702</v>
+        <v>2349.698511015574</v>
       </c>
       <c r="T17" t="n">
-        <v>2104.154988922119</v>
+        <v>2126.19790857499</v>
       </c>
       <c r="U17" t="n">
-        <v>1848.402259356717</v>
+        <v>1870.445179009589</v>
       </c>
       <c r="V17" t="n">
-        <v>1506.295450060236</v>
+        <v>1528.338369713108</v>
       </c>
       <c r="W17" t="n">
-        <v>1506.295450060236</v>
+        <v>1157.339334681395</v>
       </c>
       <c r="X17" t="n">
-        <v>1506.295450060236</v>
+        <v>767.8867296144518</v>
       </c>
       <c r="Y17" t="n">
-        <v>1506.295450060236</v>
+        <v>371.396020535053</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>47.31297010154367</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>632.8109751081458</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.141762214911</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5695,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>539.420211517574</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V19" t="n">
-        <v>273.4408663383982</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W19" t="n">
-        <v>232.5209887928449</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="X19" t="n">
-        <v>232.5209887928449</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="Y19" t="n">
-        <v>232.5209887928449</v>
+        <v>215.567024002098</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1927.160845651305</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="C20" t="n">
-        <v>1533.985344154236</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.544215370903</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E20" t="n">
-        <v>745.9606904874479</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F20" t="n">
-        <v>329.0662520174257</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V20" t="n">
-        <v>2327.655591362702</v>
+        <v>2023.733282633076</v>
       </c>
       <c r="W20" t="n">
-        <v>2327.655591362702</v>
+        <v>1652.734247601363</v>
       </c>
       <c r="X20" t="n">
-        <v>2327.655591362702</v>
+        <v>1263.28164253442</v>
       </c>
       <c r="Y20" t="n">
-        <v>2327.655591362702</v>
+        <v>866.7909334550213</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.201482535628</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535628</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>304.9463049267488</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>304.9463049267488</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>304.9463049267488</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>149.4677538882428</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2365.64850507718</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T22" t="n">
-        <v>2129.929453245415</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U22" t="n">
-        <v>1844.490661487315</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V22" t="n">
-        <v>1578.51131630814</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W22" t="n">
-        <v>1464.201482535628</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X22" t="n">
-        <v>1464.201482535628</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y22" t="n">
-        <v>1464.201482535628</v>
+        <v>460.5051170675463</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5587760470498</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C23" t="n">
-        <v>784.5587760470498</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D23" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E23" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -5996,43 +5998,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V23" t="n">
-        <v>1544.288363774714</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.289328743002</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X23" t="n">
-        <v>784.5587760470498</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="Y23" t="n">
-        <v>784.5587760470498</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6111,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.31297010154361</v>
+        <v>1625.125719607983</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154361</v>
+        <v>1625.125719607983</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154361</v>
+        <v>1625.125719607983</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K25" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M25" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N25" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O25" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P25" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q25" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R25" t="n">
-        <v>824.8590032756731</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S25" t="n">
-        <v>622.0429194582225</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T25" t="n">
-        <v>622.0429194582225</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U25" t="n">
-        <v>336.6041277001235</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V25" t="n">
-        <v>336.6041277001235</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W25" t="n">
-        <v>336.6041277001235</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="X25" t="n">
-        <v>336.6041277001235</v>
+        <v>1848.23778079134</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.4920665167668</v>
+        <v>1625.125719607983</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>877.3701640835627</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C26" t="n">
-        <v>877.3701640835627</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D26" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
         <v>406.2953261290054</v>
@@ -6239,37 +6241,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W26" t="n">
-        <v>2063.808223941302</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X26" t="n">
-        <v>1674.355618874358</v>
+        <v>1007.337326116641</v>
       </c>
       <c r="Y26" t="n">
-        <v>1277.86490979496</v>
+        <v>825.9296003819453</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L27" t="n">
-        <v>480.1670983834975</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6415,19 +6417,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W28" t="n">
-        <v>665.4295905742738</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X28" t="n">
-        <v>431.3492683572568</v>
+        <v>145.9104765991578</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.2372071739002</v>
+        <v>145.9104765991578</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.9296003819453</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C29" t="n">
-        <v>432.7540988848759</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K29" t="n">
         <v>406.2953261290054</v>
@@ -6476,37 +6478,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V29" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W29" t="n">
-        <v>1800.041093340115</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.915055172741</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y29" t="n">
-        <v>1226.424346093342</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K30" t="n">
-        <v>194.5661265746817</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L30" t="n">
-        <v>678.132212472995</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M30" t="n">
-        <v>1263.630217479597</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N30" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1951.406783011508</v>
+        <v>246.1412496659556</v>
       </c>
       <c r="C31" t="n">
-        <v>1951.406783011508</v>
+        <v>75.93613173194478</v>
       </c>
       <c r="D31" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E31" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F31" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2236.845574769607</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2236.845574769607</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>1951.406783011508</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X31" t="n">
-        <v>1951.406783011508</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y31" t="n">
-        <v>1951.406783011508</v>
+        <v>431.3492683572568</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C32" t="n">
-        <v>1972.473003580111</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D32" t="n">
-        <v>1587.031874796779</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E32" t="n">
-        <v>1184.448349913323</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F32" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G32" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1086.634161864653</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.445445502115</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O32" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K33" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>643.9940382195842</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>643.9940382195842</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.14176221491</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1723.248102985505</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C34" t="n">
-        <v>1553.042985051494</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W34" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X34" t="n">
-        <v>2131.568182860163</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y34" t="n">
-        <v>1908.456121676807</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2365.64850507718</v>
+        <v>1378.336361148353</v>
       </c>
       <c r="C35" t="n">
-        <v>1972.473003580111</v>
+        <v>1378.336361148353</v>
       </c>
       <c r="D35" t="n">
-        <v>1742.373856308063</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E35" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F35" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G35" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K35" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.64850507718</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.64850507718</v>
+        <v>1378.336361148353</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.64850507718</v>
+        <v>1378.336361148353</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L36" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N36" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>1803.21238006054</v>
       </c>
       <c r="U37" t="n">
-        <v>100.8850758683575</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="V37" t="n">
-        <v>100.8850758683575</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="W37" t="n">
-        <v>100.8850758683575</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="X37" t="n">
-        <v>100.8850758683575</v>
+        <v>1621.527417322654</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1621.527417322654</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1690.933292606445</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C38" t="n">
-        <v>1297.757791109376</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D38" t="n">
-        <v>912.3166623260436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E38" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F38" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G38" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H38" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L38" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M38" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N38" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O38" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2317.685057203559</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U38" t="n">
-        <v>2061.932327638158</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V38" t="n">
-        <v>2061.932327638158</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W38" t="n">
-        <v>1690.933292606445</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X38" t="n">
-        <v>1690.933292606445</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y38" t="n">
-        <v>1690.933292606445</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K39" t="n">
-        <v>160.427952321271</v>
+        <v>194.5661265746813</v>
       </c>
       <c r="L39" t="n">
-        <v>643.9940382195842</v>
+        <v>678.1322124729945</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631995</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769802</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
         <v>2341.731461975244</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G40" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H40" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7354,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>534.5182705774242</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U40" t="n">
-        <v>534.5182705774242</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V40" t="n">
-        <v>534.5182705774242</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.663050286385</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C41" t="n">
-        <v>1568.663050286385</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D41" t="n">
-        <v>1568.663050286385</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.079525402929</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F41" t="n">
-        <v>749.1850869329068</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>1828.135914986517</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1438.683309919574</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1042.192600840175</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7594,25 +7596,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>510.2248569938795</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>510.2248569938795</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>244.2455118147037</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X43" t="n">
-        <v>244.2455118147037</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1965.153759365783</v>
+        <v>1530.670136571905</v>
       </c>
       <c r="C44" t="n">
-        <v>1571.978257868714</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D44" t="n">
-        <v>1186.537129085382</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E44" t="n">
-        <v>1186.537129085382</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>769.6426906153594</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>356.4799351033625</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M44" t="n">
-        <v>1044.265390756362</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N44" t="n">
-        <v>1572.076674393824</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O44" t="n">
-        <v>2012.116275286153</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="V44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="W44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="X44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2365.64850507718</v>
+        <v>1931.164882283302</v>
       </c>
     </row>
     <row r="45">
@@ -7719,40 +7721,40 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>745.9259573278732</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.423962334475</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>1847.944244925457</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
         <v>2029.816973074021</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154361</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154361</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029717</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7843,13 +7845,13 @@
         <v>663.3212008849971</v>
       </c>
       <c r="W46" t="n">
-        <v>663.3212008849971</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X46" t="n">
-        <v>429.2408786679802</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y46" t="n">
-        <v>206.1288174846235</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M2" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7994,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>471.718680573789</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>487.848403846783</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8298,13 +8300,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>349.243822659482</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>581.2880043687418</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140705</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>265.8235510992399</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>239.7287152499928</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>470.4637632346373</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>506.8283140129063</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8705,10 +8707,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>124.0799396297078</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>588.3030135638863</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8927,10 +8929,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -8942,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,22 +9008,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>509.5709760063959</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.8239269133934</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9164,25 +9166,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>667.5244230630204</v>
+        <v>502.5559668112506</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9401,10 +9403,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>415.8062469585524</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9644,13 +9646,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389944</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -9717,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>384.8576652182069</v>
       </c>
       <c r="N24" t="n">
-        <v>415.8062469585531</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9951,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>237.3130400541719</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10124,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10188,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>124.0799396297078</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10349,13 +10351,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389944</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10364,7 +10366,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10425,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>509.5709760063959</v>
       </c>
       <c r="N33" t="n">
-        <v>656.2283997181322</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10586,7 +10588,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10598,7 +10600,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
@@ -10671,10 +10673,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>186.0888404416876</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10826,7 +10828,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10838,7 +10840,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>277.8952841518222</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10899,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>238.3374974274118</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>308.5636983559939</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>149.8974233269826</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>179.0738312465426</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11294,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>663.8430986641865</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11312,10 +11314,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>320.6920226450452</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,22 +11378,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>373.2845452201562</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>48.8096532455009</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22562,10 +22564,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>285.1700401626157</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22603,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -22723,10 +22725,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>108.8015838723061</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>24.04094380275529</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>332.8593741549295</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>103.4214787759271</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22963,7 +22965,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>59.88030049019176</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23084,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>62.97745769620184</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23200,7 +23202,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23258,25 +23260,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>16.83481595771229</v>
       </c>
       <c r="D11" t="n">
-        <v>59.55781538026901</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -23470,16 +23472,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>59.85708420411913</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>263.0851283329353</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>87.62118754448949</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23741,16 +23743,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>231.6497308050105</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>149.0579253873704</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>239.9864192780364</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>8.878860978517395</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>130.0953788601536</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24026,16 +24028,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0.1896709838542279</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24133,7 +24135,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24142,13 +24144,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>60.70473263261974</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>167.3303626133472</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -24218,10 +24220,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,7 +24259,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7148318472815731</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>223.8638727492654</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.8386330533173</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,10 +24372,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>150.4409047569131</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>68.46716635687545</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.9321535112563</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24616,7 +24618,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>56.31223409548286</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24655,7 +24657,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24731,22 +24733,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>210.2033012305731</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>88.51839801714289</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>125.7398519524132</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24850,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>195.9350014485273</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.83481595771161</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>66.1236944758021</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25126,22 +25128,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25156,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>153.7885616961715</v>
+        <v>206.4724023305305</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,16 +25210,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25321,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>102.7162907300107</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25378,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.8445558623773</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25406,10 +25408,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>173.7817830212926</v>
+        <v>59.85708420411922</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25561,16 +25563,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214579</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>182.3894278006352</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>35.01995222300161</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25676,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25688,10 +25690,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.91772427549458</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>141.0344633532604</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>151.7206703158334</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25931,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.12824959513918</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26035,13 +26037,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>122.9077095714779</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26083,13 +26085,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804655</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804655</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804657</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804655</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804657</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804651</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666590.4456804654</v>
+        <v>666590.4456804657</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804655</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666590.4456804657</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666590.4456804657</v>
+        <v>666590.4456804653</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>146808.4351127586</v>
+      </c>
+      <c r="C2" t="n">
+        <v>146808.4351127586</v>
+      </c>
+      <c r="D2" t="n">
         <v>146808.4351127587</v>
-      </c>
-      <c r="C2" t="n">
-        <v>146808.4351127587</v>
-      </c>
-      <c r="D2" t="n">
-        <v>146808.4351127586</v>
       </c>
       <c r="E2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="F2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="G2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="H2" t="n">
+        <v>146808.4351127587</v>
+      </c>
+      <c r="I2" t="n">
         <v>146808.4351127586</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>146808.4351127586</v>
+      </c>
+      <c r="K2" t="n">
         <v>146808.4351127587</v>
       </c>
-      <c r="J2" t="n">
-        <v>146808.4351127587</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>146808.4351127586</v>
       </c>
-      <c r="L2" t="n">
-        <v>146808.4351127587</v>
-      </c>
       <c r="M2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="N2" t="n">
         <v>146808.4351127587</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="E4" t="n">
-        <v>23353.24319649382</v>
+        <v>23353.24319649381</v>
       </c>
       <c r="F4" t="n">
         <v>23353.24319649382</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144326.0713526533</v>
+        <v>-144326.0713526532</v>
       </c>
       <c r="C6" t="n">
-        <v>53869.73463909171</v>
+        <v>53869.73463909166</v>
       </c>
       <c r="D6" t="n">
-        <v>53869.73463909162</v>
+        <v>53869.73463909172</v>
       </c>
       <c r="E6" t="n">
-        <v>87497.33463909171</v>
+        <v>87497.33463909174</v>
       </c>
       <c r="F6" t="n">
-        <v>87497.33463909166</v>
+        <v>87497.33463909174</v>
       </c>
       <c r="G6" t="n">
         <v>87497.33463909171</v>
       </c>
       <c r="H6" t="n">
+        <v>87497.33463909174</v>
+      </c>
+      <c r="I6" t="n">
         <v>87497.33463909166</v>
       </c>
-      <c r="I6" t="n">
-        <v>87497.33463909168</v>
-      </c>
       <c r="J6" t="n">
-        <v>-67242.09972651175</v>
+        <v>-67242.09972651169</v>
       </c>
       <c r="K6" t="n">
+        <v>87497.33463909171</v>
+      </c>
+      <c r="L6" t="n">
         <v>87497.33463909166</v>
       </c>
-      <c r="L6" t="n">
-        <v>87497.33463909168</v>
-      </c>
       <c r="M6" t="n">
-        <v>87497.3346390917</v>
+        <v>87497.33463909166</v>
       </c>
       <c r="N6" t="n">
         <v>87497.33463909171</v>
       </c>
       <c r="O6" t="n">
-        <v>87497.33463909168</v>
+        <v>87497.33463909171</v>
       </c>
       <c r="P6" t="n">
         <v>87497.33463909171</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M2" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34714,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>381.6583337168707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>338.7299125089989</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>259.1834758025638</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>495.9158915145752</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835787</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>180.4514382450733</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>148.7405620940788</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>327.4053600553999</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>357.103262415179</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35425,10 +35427,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.48300429637448</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35662,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>417.183853957084</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940788</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>582.1523102088538</v>
+        <v>417.183853957084</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>330.4341341043857</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,13 +36366,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412671</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>292.470543168895</v>
       </c>
       <c r="N24" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>144.92591800486</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>34.48300429637442</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412671</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,7 +37086,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>417.183853957084</v>
       </c>
       <c r="N33" t="n">
-        <v>570.8562868639656</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37318,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>93.70171839237568</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37558,7 +37560,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>127.593836910897</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.7405620940785</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>216.1765763066821</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>5.398724908590421</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>93.70171839237591</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>514.1180470664593</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38032,10 +38034,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>170.39057540412</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>286.2011804008416</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373873.6176770386</v>
+        <v>368165.4618691524</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.05046239</v>
+        <v>3854815.050462384</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7707867.267003316</v>
+        <v>7707867.267003317</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -667,13 +667,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>349.74803638912</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734882</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>145.9951119230965</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.7828199682119</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>184.899616880761</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.1043232126777</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>256.4561542453789</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>85.23844602647317</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>322.5806213200719</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.1966291281701</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>372.4089305243864</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>175.3547777857005</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.1303486577824</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>336.6327140501638</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>367.0090829601283</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>113.1667354347866</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>15.79049412098954</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1909,10 +1909,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>377.6489571223777</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830805</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
         <v>207.9625118881446</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9.863149079887732</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0020795930057</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>312.1350518117875</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.4960702196626</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>59.30888115713332</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.05874847667314</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>162.460400747099</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>168.6619292393395</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.562319262476439</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>41.733731216394</v>
       </c>
       <c r="Y26" t="n">
-        <v>179.5936484773486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>97.61153143263809</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.48573966753936</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>72.87250780621707</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>28.33693001409718</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>209.8262535446769</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>55.99374423337349</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>191.5572192097986</v>
       </c>
       <c r="D35" t="n">
-        <v>175.1143151649685</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3477,10 +3477,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>130.6455705834373</v>
       </c>
       <c r="U37" t="n">
-        <v>179.8681131105074</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>161.4085122120583</v>
+        <v>18.3663558755324</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>214.1003704536477</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>236.5001536289044</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>113.1667354347867</v>
+        <v>34.56570943550025</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>248.2092831288383</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>22.29658435584777</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.66380379007099</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.21044521944</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C2" t="n">
-        <v>786.0349437223708</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D2" t="n">
-        <v>400.5938149390386</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.57585191238</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.648505077179</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.648505077179</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="X2" t="n">
-        <v>1976.195900010236</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.705190930837</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998569</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7856656383638</v>
+        <v>194.7827801248735</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>210.7856656383638</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V4" t="n">
-        <v>210.7856656383638</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W4" t="n">
-        <v>210.7856656383638</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7856656383638</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7856656383638</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1673.129190464088</v>
+        <v>1012.696890160492</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.953688967018</v>
+        <v>619.5213886634224</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>234.0802598800901</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1809.682344951288</v>
       </c>
       <c r="Y5" t="n">
-        <v>2073.623936175485</v>
+        <v>1413.191635871889</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>623.6437572083082</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083082</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
         <v>2341.731461975244</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
-        <v>689.7133721932184</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>455.6330499762015</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.5209887928449</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1242.824038851968</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="C8" t="n">
-        <v>849.6485373548981</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D8" t="n">
-        <v>464.2074085715658</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E8" t="n">
-        <v>464.2074085715658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X8" t="n">
-        <v>2039.809493642763</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.318784563364</v>
+        <v>921.4370641991123</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068685</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931308</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>507.6880877875118</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>352.1292756467143</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>663.3212008849971</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2365.648505077179</v>
+        <v>1003.05563854932</v>
       </c>
       <c r="C11" t="n">
-        <v>1989.47786818386</v>
+        <v>609.8801370522501</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.036739400527</v>
+        <v>224.4390082689179</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.453214517072</v>
+        <v>224.4390082689179</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>224.4390082689179</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>371.4442765563895</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>864.7645682749184</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749184</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.57585191238</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="Y11" t="n">
-        <v>2365.648505077179</v>
+        <v>1403.550384260717</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631988</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5229,22 +5229,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>397.3418557058213</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W13" t="n">
-        <v>114.011453636999</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154359</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154359</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154359</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L14" t="n">
-        <v>318.7636682303378</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749184</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636596</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071195</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774713</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W14" t="n">
-        <v>1173.289328743001</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="X14" t="n">
-        <v>783.8367236760574</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="Y14" t="n">
-        <v>387.3460145966586</v>
+        <v>1262.811292866895</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1263.630217479596</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1849.128222486198</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>177.174714998724</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>177.174714998724</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>177.174714998724</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5463,25 +5463,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>834.4501588705843</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T16" t="n">
-        <v>598.7311070388184</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U16" t="n">
-        <v>313.2923152807194</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154359</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>177.174714998724</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>177.174714998724</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>177.174714998724</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.396020535053</v>
+        <v>843.0719964820685</v>
       </c>
       <c r="C17" t="n">
-        <v>371.396020535053</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="D17" t="n">
-        <v>371.396020535053</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2349.698511015574</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2126.19790857499</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>1870.445179009589</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V17" t="n">
-        <v>1528.338369713108</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W17" t="n">
-        <v>1157.339334681395</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X17" t="n">
-        <v>767.8867296144518</v>
+        <v>843.0719964820685</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.396020535053</v>
+        <v>843.0719964820685</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>789.0311263475785</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068685</v>
+        <v>1374.529131354181</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.128222486198</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>215.567024002098</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C19" t="n">
-        <v>215.567024002098</v>
+        <v>370.2347948344274</v>
       </c>
       <c r="D19" t="n">
-        <v>215.567024002098</v>
+        <v>214.6016817369421</v>
       </c>
       <c r="E19" t="n">
-        <v>215.567024002098</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F19" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V19" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W19" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X19" t="n">
-        <v>429.7105387425078</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.567024002098</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>866.7909334550213</v>
+        <v>1141.217531504963</v>
       </c>
       <c r="C20" t="n">
-        <v>866.7909334550213</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="D20" t="n">
-        <v>866.7909334550213</v>
+        <v>362.6009012245613</v>
       </c>
       <c r="E20" t="n">
-        <v>464.2074085715658</v>
+        <v>362.6009012245613</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>362.6009012245613</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>864.7645682749184</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.57585191238</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.615452804709</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V20" t="n">
-        <v>2023.733282633076</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W20" t="n">
-        <v>1652.734247601363</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X20" t="n">
-        <v>1263.28164253442</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="Y20" t="n">
-        <v>866.7909334550213</v>
+        <v>1541.71227721636</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6182020620834</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.14176221491</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P21" t="n">
         <v>2131.283413522289</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>460.5051170675463</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C22" t="n">
-        <v>460.5051170675463</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D22" t="n">
-        <v>460.5051170675463</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E22" t="n">
-        <v>304.9463049267488</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F22" t="n">
-        <v>304.9463049267488</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>304.9463049267488</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>149.4677538882428</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5943,19 +5943,19 @@
         <v>745.9439088256454</v>
       </c>
       <c r="U22" t="n">
-        <v>460.5051170675463</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V22" t="n">
-        <v>460.5051170675463</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W22" t="n">
-        <v>460.5051170675463</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="X22" t="n">
-        <v>460.5051170675463</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="Y22" t="n">
-        <v>460.5051170675463</v>
+        <v>745.9439088256454</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>825.9296003819453</v>
+        <v>952.3918739011349</v>
       </c>
       <c r="C23" t="n">
-        <v>432.7540988848759</v>
+        <v>952.3918739011349</v>
       </c>
       <c r="D23" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E23" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F23" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
@@ -5998,43 +5998,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1397.797620547389</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>1925.608904184851</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U23" t="n">
-        <v>2109.895775511778</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V23" t="n">
-        <v>1767.788966215297</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W23" t="n">
-        <v>1396.789931183584</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="X23" t="n">
-        <v>1396.789931183584</v>
+        <v>1348.882582980534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1226.424346093342</v>
+        <v>952.3918739011349</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.164039799289</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.662044805891</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O24" t="n">
         <v>1725.662044805891</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1625.125719607983</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>1625.125719607983</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>1625.125719607983</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>1621.527417322654</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>2365.648505077179</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U25" t="n">
-        <v>2365.648505077179</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V25" t="n">
-        <v>2365.648505077179</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W25" t="n">
-        <v>2082.318103008357</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>1848.23778079134</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>1625.125719607983</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>825.9296003819453</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="C26" t="n">
-        <v>432.7540988848759</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154359</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154359</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W26" t="n">
-        <v>1396.789931183584</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X26" t="n">
-        <v>1007.337326116641</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="Y26" t="n">
-        <v>825.9296003819453</v>
+        <v>926.6275759126104</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.9104765991578</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="C28" t="n">
-        <v>145.9104765991578</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="D28" t="n">
-        <v>145.9104765991578</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="E28" t="n">
-        <v>145.9104765991578</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="F28" t="n">
-        <v>145.9104765991578</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="G28" t="n">
-        <v>145.9104765991578</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6408,28 +6408,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>879.5824778273998</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>879.5824778273998</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>643.8634259956339</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="V28" t="n">
-        <v>663.3212008849971</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="W28" t="n">
-        <v>379.9907988161747</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="X28" t="n">
-        <v>145.9104765991578</v>
+        <v>358.4246342375349</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.9104765991578</v>
+        <v>358.4246342375349</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2058.57031924742</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C29" t="n">
-        <v>1665.394817750351</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D29" t="n">
-        <v>1279.953688967018</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E29" t="n">
-        <v>877.3701640835627</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F29" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L29" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M29" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N29" t="n">
-        <v>1973.427801529577</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.648505077179</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="Y29" t="n">
-        <v>2058.57031924742</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>246.1412496659556</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>75.93613173194478</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6651,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2058.57031924742</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C32" t="n">
-        <v>1665.394817750351</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E32" t="n">
-        <v>877.3701640835627</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F32" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.648505077179</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X32" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y32" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479596</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.31297010154359</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C34" t="n">
-        <v>47.31297010154359</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6891,19 +6891,19 @@
         <v>713.0409408113302</v>
       </c>
       <c r="U34" t="n">
-        <v>427.6021490532311</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6228038740554</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W34" t="n">
-        <v>47.31297010154359</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="X34" t="n">
-        <v>47.31297010154359</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.31297010154359</v>
+        <v>429.7105387425078</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1378.336361148353</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="C35" t="n">
-        <v>1378.336361148353</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D35" t="n">
-        <v>1201.453214517072</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.453214517072</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F35" t="n">
-        <v>784.5587760470498</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G35" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2109.895775511778</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V35" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W35" t="n">
-        <v>1767.788966215297</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X35" t="n">
-        <v>1378.336361148353</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="Y35" t="n">
-        <v>1378.336361148353</v>
+        <v>950.3292899343434</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154358</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631988</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2241.747515709756</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S37" t="n">
-        <v>2038.931431892306</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T37" t="n">
-        <v>1803.21238006054</v>
+        <v>490.0776966466697</v>
       </c>
       <c r="U37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="V37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="W37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="X37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="Y37" t="n">
-        <v>1621.527417322654</v>
+        <v>204.6389048885707</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.31297010154359</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C38" t="n">
-        <v>47.31297010154359</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D38" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E38" t="n">
-        <v>47.31297010154359</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.609603852878</v>
+        <v>2142.590161682003</v>
       </c>
       <c r="U38" t="n">
-        <v>1946.856874287477</v>
+        <v>1886.837432116602</v>
       </c>
       <c r="V38" t="n">
-        <v>1604.750064990995</v>
+        <v>1544.73062282012</v>
       </c>
       <c r="W38" t="n">
-        <v>1233.751029959283</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="X38" t="n">
-        <v>844.2984248923394</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="Y38" t="n">
-        <v>447.8077158129405</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K39" t="n">
-        <v>194.5661265746813</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L39" t="n">
-        <v>678.1322124729945</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1263.630217479596</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N39" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7359,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T40" t="n">
-        <v>882.0615091076409</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U40" t="n">
-        <v>596.6227173495417</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V40" t="n">
         <v>330.643372170366</v>
       </c>
       <c r="W40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>825.9296003819453</v>
+        <v>610.2850646046534</v>
       </c>
       <c r="C41" t="n">
-        <v>432.7540988848759</v>
+        <v>610.2850646046534</v>
       </c>
       <c r="D41" t="n">
-        <v>47.31297010154359</v>
+        <v>610.2850646046534</v>
       </c>
       <c r="E41" t="n">
-        <v>47.31297010154359</v>
+        <v>610.2850646046534</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154359</v>
+        <v>610.2850646046534</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L41" t="n">
-        <v>1044.265390756362</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M41" t="n">
-        <v>1044.265390756362</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N41" t="n">
-        <v>1572.076674393824</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O41" t="n">
-        <v>2012.116275286153</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.303767417675</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2199.13495001823</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2199.13495001823</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V41" t="n">
-        <v>2199.13495001823</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W41" t="n">
-        <v>1828.135914986517</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X41" t="n">
-        <v>1438.683309919574</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y41" t="n">
-        <v>1042.192600840175</v>
+        <v>610.2850646046534</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L42" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7535,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7593,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S43" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T43" t="n">
-        <v>713.0409408113302</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U43" t="n">
-        <v>427.6021490532311</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6228038740554</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154359</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1530.670136571905</v>
+        <v>984.253971304408</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.953688967018</v>
+        <v>984.253971304408</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.953688967018</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="E44" t="n">
-        <v>877.3701640835627</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F44" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>540.6332618200724</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M44" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N44" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.655591362701</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V44" t="n">
-        <v>2327.655591362701</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W44" t="n">
-        <v>2327.655591362701</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X44" t="n">
-        <v>2327.655591362701</v>
+        <v>984.253971304408</v>
       </c>
       <c r="Y44" t="n">
-        <v>1931.164882283302</v>
+        <v>984.253971304408</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
         <v>160.427952321271</v>
@@ -7736,7 +7736,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N45" t="n">
         <v>1209.14176221491</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>335.8859465029717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7842,16 +7842,16 @@
         <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>663.3212008849971</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>379.9907988161747</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8063,13 +8063,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>674.5394322581658</v>
       </c>
       <c r="N3" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8230,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8300,16 +8300,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>349.243822659482</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8531,25 +8531,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>593.5689418267925</v>
       </c>
       <c r="N9" t="n">
-        <v>265.8235510992399</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8692,13 +8692,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>470.4637632346373</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8707,10 +8707,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>588.3030135638863</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8929,10 +8929,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>417.2510275517577</v>
       </c>
       <c r="L14" t="n">
-        <v>427.4407941030111</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
         <v>701.2411122488187</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>509.5709760063959</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9166,25 +9166,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,25 +9242,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>402.0442134873031</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>502.5559668112506</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095472</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>412.1758066560607</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9646,13 +9646,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>652.9391957389944</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P23" t="n">
         <v>150.3014472409252</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,13 +9725,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>384.8576652182069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10126,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10357,19 +10357,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>652.9391957389944</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>509.5709760063959</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>422.8212561536977</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>238.3374974274118</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11077,10 +11077,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.8974233269826</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118428</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>663.8430986641865</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11384,10 +11384,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118428</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>48.8096532455009</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22606,16 +22606,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>34.67833723205388</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>22.50795483157412</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -22725,10 +22725,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>108.8015838723061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22789,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>213.6580727538598</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22834,7 +22834,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -22849,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>103.4214787759271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -22995,22 +22995,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.04094380275529</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>304.0053004556255</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>62.97745769620184</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23184,16 +23184,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>20.55604631098666</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>16.83481595771229</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>233.6763501711764</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23311,13 +23311,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23469,22 +23469,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>27.75059191374069</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.85708420411913</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23545,25 +23545,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>18.54899605614543</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>25.44009657118096</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
@@ -23703,19 +23703,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>87.62118754448949</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,13 +23734,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
@@ -23749,7 +23749,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>149.0579253873704</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.909121893895986</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>144.1400749395018</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23943,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -23952,13 +23952,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.878860978517395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>96.89607614508935</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24028,10 +24028,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1896709838542279</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>124.0470573472549</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>60.70473263261974</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>219.1263167483999</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24256,16 +24256,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.8638727492654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,10 +24372,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4409047569131</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>343.8243477998797</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.9321535112563</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24618,7 +24618,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>56.31223409548286</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>54.17623980620944</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24682,25 +24682,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>312.6855712100567</v>
       </c>
       <c r="Y29" t="n">
-        <v>88.51839801714289</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>125.7398519524132</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24891,19 +24891,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92.48239428282091</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>179.4174929374217</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>127.3621942710148</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,19 +25156,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>197.6865272723001</v>
       </c>
       <c r="D35" t="n">
-        <v>206.4724023305305</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>102.7162907300109</v>
       </c>
       <c r="U37" t="n">
-        <v>102.7162907300107</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>59.85708420411922</v>
+        <v>202.8992405406451</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25599,16 +25599,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.3894278006352</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,10 +25642,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>172.5309743279725</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>167.3303626133475</v>
+        <v>245.9313886126339</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>141.0344633532604</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>363.261494660426</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>122.9077095714779</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804651</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>666590.4456804659</v>
+        <v>666590.4456804655</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666590.4456804657</v>
+        <v>666590.4456804654</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804651</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666590.4456804657</v>
+        <v>666590.445680466</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666590.4456804657</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666590.4456804651</v>
+        <v>666590.445680466</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666590.4456804657</v>
+        <v>666590.4456804654</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666590.4456804655</v>
+        <v>666590.4456804659</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666590.4456804653</v>
+        <v>666590.445680466</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>146808.4351127586</v>
       </c>
       <c r="C2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="D2" t="n">
         <v>146808.4351127587</v>
@@ -26334,19 +26334,19 @@
         <v>146808.4351127587</v>
       </c>
       <c r="I2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="J2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="K2" t="n">
         <v>146808.4351127587</v>
       </c>
       <c r="L2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="M2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="N2" t="n">
         <v>146808.4351127587</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="E4" t="n">
-        <v>23353.24319649381</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="F4" t="n">
         <v>23353.24319649382</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144326.0713526532</v>
+        <v>-145000.0974788734</v>
       </c>
       <c r="C6" t="n">
-        <v>53869.73463909166</v>
+        <v>53195.70851287164</v>
       </c>
       <c r="D6" t="n">
-        <v>53869.73463909172</v>
+        <v>53195.70851287164</v>
       </c>
       <c r="E6" t="n">
-        <v>87497.33463909174</v>
+        <v>86823.30851287165</v>
       </c>
       <c r="F6" t="n">
-        <v>87497.33463909174</v>
+        <v>86823.30851287165</v>
       </c>
       <c r="G6" t="n">
-        <v>87497.33463909171</v>
+        <v>86823.30851287168</v>
       </c>
       <c r="H6" t="n">
-        <v>87497.33463909174</v>
+        <v>86823.30851287165</v>
       </c>
       <c r="I6" t="n">
-        <v>87497.33463909166</v>
+        <v>86823.30851287171</v>
       </c>
       <c r="J6" t="n">
-        <v>-67242.09972651169</v>
+        <v>-67916.12585273178</v>
       </c>
       <c r="K6" t="n">
-        <v>87497.33463909171</v>
+        <v>86823.30851287171</v>
       </c>
       <c r="L6" t="n">
-        <v>87497.33463909166</v>
+        <v>86823.30851287168</v>
       </c>
       <c r="M6" t="n">
-        <v>87497.33463909166</v>
+        <v>86823.30851287171</v>
       </c>
       <c r="N6" t="n">
-        <v>87497.33463909171</v>
+        <v>86823.30851287168</v>
       </c>
       <c r="O6" t="n">
-        <v>87497.33463909171</v>
+        <v>86823.30851287165</v>
       </c>
       <c r="P6" t="n">
-        <v>87497.33463909171</v>
+        <v>86823.30851287174</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>582.1523102088539</v>
       </c>
       <c r="N3" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34950,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>259.1834758025638</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>501.1818197774807</v>
       </c>
       <c r="N9" t="n">
-        <v>180.4514382450733</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>327.4053600553999</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35427,10 +35427,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>495.9158915145745</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="L14" t="n">
-        <v>274.1926243725193</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>417.183853957084</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>311.9838666303849</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>417.183853957084</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>319.4882477671719</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36366,13 +36366,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>503.2141441412671</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,13 +36445,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>292.470543168895</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36846,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37077,19 +37077,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>503.2141441412671</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>417.183853957084</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>330.4341341043858</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>148.7405620940785</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37797,10 +37797,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.398724908590421</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>514.1180470664593</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38037,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
